--- a/7rMartSuperMarket/src/test/resources/TestData1.xlsx
+++ b/7rMartSuperMarket/src/test/resources/TestData1.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{19DBEB54-AE84-4BF9-9E4F-5CEF968657C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nihal\git\7rMartSuperMarket\7rMartSuperMarket\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A58FB-AE20-4359-80D7-1A53937022FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +16,6 @@
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -30,6 +34,9 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>adminss</t>
   </si>
 </sst>
 </file>
@@ -347,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -371,6 +378,30 @@
         <v>123</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
